--- a/formatos/formato-procesos.xlsx
+++ b/formatos/formato-procesos.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E4F7B4-FFFD-47DB-BAE5-FCA78AAC03CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Procesos" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,15 +38,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,7 +67,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -100,14 +101,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,36 +388,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>